--- a/horarios_optimizados-821-push_gap_0.80.xlsx
+++ b/horarios_optimizados-821-push_gap_0.80.xlsx
@@ -891,9 +891,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
+      <c r="R8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="U8" s="4" t="inlineStr"/>
       <c r="V8" s="4" t="inlineStr"/>
       <c r="W8" s="4" t="inlineStr"/>
@@ -969,19 +981,31 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R9" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S9" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T9" s="4" t="inlineStr"/>
-      <c r="U9" s="4" t="inlineStr"/>
-      <c r="V9" s="4" t="inlineStr"/>
+      <c r="R9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="W9" s="4" t="inlineStr"/>
       <c r="X9" s="4" t="inlineStr"/>
     </row>
@@ -991,21 +1015,37 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr"/>
-      <c r="C10" s="4" t="inlineStr"/>
-      <c r="D10" s="4" t="inlineStr"/>
-      <c r="E10" s="4" t="inlineStr"/>
-      <c r="F10" s="4" t="inlineStr"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="H10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H10" s="4" t="inlineStr"/>
       <c r="I10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1036,52 +1076,48 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O10" s="4" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P10" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q10" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R10" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S10" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T10" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U10" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V10" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W10" s="4" t="inlineStr"/>
+      <c r="X10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1089,26 +1125,10 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B11" s="4" t="inlineStr"/>
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
       <c r="F11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1119,7 +1139,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1165,19 +1189,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R11" s="4" t="inlineStr"/>
       <c r="S11" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="T11" s="4" t="inlineStr"/>
-      <c r="U11" s="4" t="inlineStr"/>
-      <c r="V11" s="4" t="inlineStr"/>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="W11" s="4" t="inlineStr"/>
       <c r="X11" s="4" t="inlineStr"/>
     </row>
@@ -1270,17 +1302,37 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr"/>
-      <c r="C15" s="4" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr"/>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="4" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr"/>
       <c r="I15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1301,57 +1353,49 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M15" s="4" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N15" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O15" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P15" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q15" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R15" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S15" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T15" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U15" s="4" t="inlineStr"/>
+      <c r="V15" s="4" t="inlineStr"/>
+      <c r="W15" s="4" t="inlineStr"/>
       <c r="X15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1360,100 +1404,28 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B16" s="4" t="inlineStr"/>
+      <c r="C16" s="4" t="inlineStr"/>
+      <c r="D16" s="4" t="inlineStr"/>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr"/>
+      <c r="H16" s="4" t="inlineStr"/>
       <c r="I16" s="4" t="inlineStr"/>
       <c r="J16" s="4" t="inlineStr"/>
       <c r="K16" s="4" t="inlineStr"/>
       <c r="L16" s="4" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M16" s="4" t="inlineStr"/>
+      <c r="N16" s="4" t="inlineStr"/>
+      <c r="O16" s="4" t="inlineStr"/>
+      <c r="P16" s="4" t="inlineStr"/>
+      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr"/>
+      <c r="T16" s="4" t="inlineStr"/>
+      <c r="U16" s="4" t="inlineStr"/>
+      <c r="V16" s="4" t="inlineStr"/>
+      <c r="W16" s="4" t="inlineStr"/>
       <c r="X16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1492,27 +1464,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr"/>
+      <c r="J17" s="4" t="inlineStr"/>
+      <c r="K17" s="4" t="inlineStr"/>
+      <c r="L17" s="4" t="inlineStr"/>
       <c r="M17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1523,43 +1483,51 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O17" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P17" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q17" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R17" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S17" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T17" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U17" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V17" s="4" t="inlineStr"/>
-      <c r="W17" s="4" t="inlineStr"/>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X17" s="4" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1568,34 +1536,54 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr"/>
-      <c r="C18" s="4" t="inlineStr"/>
-      <c r="D18" s="4" t="inlineStr"/>
-      <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr"/>
+      <c r="J18" s="4" t="inlineStr"/>
+      <c r="K18" s="4" t="inlineStr"/>
       <c r="L18" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr"/>
+      <c r="M18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1611,41 +1599,13 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q18" s="4" t="inlineStr"/>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr"/>
+      <c r="W18" s="4" t="inlineStr"/>
       <c r="X18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1654,55 +1614,39 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I19" s="4" t="inlineStr"/>
-      <c r="J19" s="4" t="inlineStr"/>
-      <c r="K19" s="4" t="inlineStr"/>
-      <c r="L19" s="4" t="inlineStr"/>
+      <c r="B19" s="4" t="inlineStr"/>
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr"/>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr"/>
+      <c r="H19" s="4" t="inlineStr"/>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M19" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N19" s="4" t="inlineStr"/>
       <c r="O19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1743,8 +1687,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W19" s="4" t="inlineStr"/>
-      <c r="X19" s="4" t="inlineStr"/>
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1752,33 +1704,17 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B20" s="4" t="inlineStr"/>
+      <c r="C20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="inlineStr"/>
-      <c r="H20" s="4" t="inlineStr"/>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1799,11 +1735,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M20" s="4" t="inlineStr"/>
       <c r="N20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1814,43 +1746,51 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P20" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q20" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R20" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S20" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T20" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U20" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V20" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W20" s="4" t="inlineStr"/>
-      <c r="X20" s="4" t="inlineStr"/>
+      <c r="P20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1858,24 +1798,84 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr"/>
-      <c r="C21" s="4" t="inlineStr"/>
-      <c r="D21" s="4" t="inlineStr"/>
-      <c r="E21" s="4" t="inlineStr"/>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="inlineStr"/>
       <c r="H21" s="4" t="inlineStr"/>
-      <c r="I21" s="4" t="inlineStr"/>
-      <c r="J21" s="4" t="inlineStr"/>
-      <c r="K21" s="4" t="inlineStr"/>
-      <c r="L21" s="4" t="inlineStr"/>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr"/>
-      <c r="O21" s="4" t="inlineStr"/>
-      <c r="P21" s="4" t="inlineStr"/>
-      <c r="Q21" s="4" t="inlineStr"/>
-      <c r="R21" s="4" t="inlineStr"/>
-      <c r="S21" s="4" t="inlineStr"/>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T21" s="4" t="inlineStr"/>
       <c r="U21" s="4" t="inlineStr"/>
       <c r="V21" s="4" t="inlineStr"/>
@@ -2001,27 +2001,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr"/>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
       <c r="M25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2032,39 +2020,51 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O25" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P25" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q25" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R25" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S25" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T25" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U25" s="4" t="inlineStr"/>
-      <c r="V25" s="4" t="inlineStr"/>
-      <c r="W25" s="4" t="inlineStr"/>
+      <c r="O25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2073,23 +2073,87 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr"/>
-      <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" s="4" t="inlineStr"/>
-      <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="4" t="inlineStr"/>
-      <c r="G26" s="4" t="inlineStr"/>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="4" t="inlineStr"/>
-      <c r="J26" s="4" t="inlineStr"/>
-      <c r="K26" s="4" t="inlineStr"/>
-      <c r="L26" s="4" t="inlineStr"/>
-      <c r="M26" s="4" t="inlineStr"/>
-      <c r="N26" s="4" t="inlineStr"/>
-      <c r="O26" s="4" t="inlineStr"/>
-      <c r="P26" s="4" t="inlineStr"/>
-      <c r="Q26" s="4" t="inlineStr"/>
-      <c r="R26" s="4" t="inlineStr"/>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O26" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P26" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q26" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R26" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="S26" s="4" t="inlineStr"/>
       <c r="T26" s="4" t="inlineStr"/>
       <c r="U26" s="4" t="inlineStr"/>
@@ -2133,15 +2197,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I27" s="4" t="inlineStr"/>
-      <c r="J27" s="4" t="inlineStr"/>
-      <c r="K27" s="4" t="inlineStr"/>
-      <c r="L27" s="4" t="inlineStr"/>
+      <c r="H27" s="4" t="inlineStr"/>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2152,51 +2228,43 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O27" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P27" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q27" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R27" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S27" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T27" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U27" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V27" s="4" t="inlineStr"/>
+      <c r="W27" s="4" t="inlineStr"/>
       <c r="X27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2205,50 +2273,34 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I28" s="4" t="inlineStr"/>
-      <c r="J28" s="4" t="inlineStr"/>
-      <c r="K28" s="4" t="inlineStr"/>
-      <c r="L28" s="4" t="inlineStr"/>
-      <c r="M28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B28" s="4" t="inlineStr"/>
+      <c r="C28" s="4" t="inlineStr"/>
+      <c r="D28" s="4" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M28" s="4" t="inlineStr"/>
       <c r="N28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2269,24 +2321,36 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R28" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S28" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T28" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U28" s="4" t="inlineStr"/>
-      <c r="V28" s="4" t="inlineStr"/>
-      <c r="W28" s="4" t="inlineStr"/>
+      <c r="R28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2489,77 +2553,21 @@
       <c r="E31" s="4" t="inlineStr"/>
       <c r="F31" s="4" t="inlineStr"/>
       <c r="G31" s="4" t="inlineStr"/>
-      <c r="H31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H31" s="4" t="inlineStr"/>
+      <c r="I31" s="4" t="inlineStr"/>
+      <c r="J31" s="4" t="inlineStr"/>
+      <c r="K31" s="4" t="inlineStr"/>
+      <c r="L31" s="4" t="inlineStr"/>
+      <c r="M31" s="4" t="inlineStr"/>
+      <c r="N31" s="4" t="inlineStr"/>
+      <c r="O31" s="4" t="inlineStr"/>
+      <c r="P31" s="4" t="inlineStr"/>
+      <c r="Q31" s="4" t="inlineStr"/>
       <c r="R31" s="4" t="inlineStr"/>
-      <c r="S31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S31" s="4" t="inlineStr"/>
+      <c r="T31" s="4" t="inlineStr"/>
+      <c r="U31" s="4" t="inlineStr"/>
+      <c r="V31" s="4" t="inlineStr"/>
       <c r="W31" s="4" t="inlineStr"/>
       <c r="X31" s="4" t="inlineStr"/>
     </row>
@@ -2652,45 +2660,37 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B35" s="4" t="inlineStr"/>
+      <c r="C35" s="4" t="inlineStr"/>
+      <c r="D35" s="4" t="inlineStr"/>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr"/>
       <c r="H35" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I35" s="4" t="inlineStr"/>
-      <c r="J35" s="4" t="inlineStr"/>
-      <c r="K35" s="4" t="inlineStr"/>
-      <c r="L35" s="4" t="inlineStr"/>
+      <c r="I35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M35" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2716,11 +2716,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R35" s="4" t="inlineStr"/>
       <c r="S35" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2784,27 +2780,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H36" s="4" t="inlineStr"/>
-      <c r="I36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I36" s="4" t="inlineStr"/>
+      <c r="J36" s="4" t="inlineStr"/>
+      <c r="K36" s="4" t="inlineStr"/>
+      <c r="L36" s="4" t="inlineStr"/>
       <c r="M36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2815,31 +2799,51 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S36" s="4" t="inlineStr"/>
-      <c r="T36" s="4" t="inlineStr"/>
-      <c r="U36" s="4" t="inlineStr"/>
-      <c r="V36" s="4" t="inlineStr"/>
-      <c r="W36" s="4" t="inlineStr"/>
+      <c r="O36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2905,17 +2909,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M38" s="4" t="inlineStr"/>
+      <c r="M38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N38" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O38" s="4" t="inlineStr"/>
       <c r="P38" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2964,34 +2968,50 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr"/>
-      <c r="C39" s="4" t="inlineStr"/>
-      <c r="D39" s="4" t="inlineStr"/>
-      <c r="E39" s="4" t="inlineStr"/>
-      <c r="F39" s="4" t="inlineStr"/>
-      <c r="G39" s="4" t="inlineStr"/>
-      <c r="H39" s="4" t="inlineStr"/>
-      <c r="I39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M39" s="4" t="inlineStr"/>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="inlineStr"/>
+      <c r="J39" s="4" t="inlineStr"/>
+      <c r="K39" s="4" t="inlineStr"/>
+      <c r="L39" s="4" t="inlineStr"/>
+      <c r="M39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3012,41 +3032,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R39" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S39" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T39" s="4" t="inlineStr"/>
+      <c r="U39" s="4" t="inlineStr"/>
+      <c r="V39" s="4" t="inlineStr"/>
+      <c r="W39" s="4" t="inlineStr"/>
+      <c r="X39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -3490,11 +3490,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -3533,11 +3533,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -3561,26 +3561,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
         <v>0.5</v>
@@ -3604,26 +3604,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
         <v>0.5</v>
@@ -3647,26 +3647,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
         <v>0.5</v>
@@ -3690,29 +3690,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3738,24 +3726,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3776,29 +3764,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -3819,29 +3807,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -3862,29 +3850,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -3905,17 +3893,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16">
@@ -3941,24 +3941,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -3979,17 +3979,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -4015,24 +4027,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -4053,29 +4065,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -4182,29 +4194,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4225,17 +4225,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4244,10 +4244,10 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
@@ -4273,24 +4273,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -4385,29 +4385,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
